--- a/Planning/Planning.xlsx
+++ b/Planning/Planning.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90EBF539-F892-4F88-B76E-F70CC5FB10E6}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Classes" sheetId="1" r:id="rId1"/>
+    <sheet name="Files" sheetId="2" r:id="rId2"/>
+    <sheet name="Misc" sheetId="3" r:id="rId3"/>
+    <sheet name="Board" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="33">
   <si>
     <t>Name</t>
   </si>
@@ -45,26 +49,93 @@
     <t>Piece</t>
   </si>
   <si>
-    <t>Piece beforePiece
-Piece afterPiece
-Piece[] destroyedPieces</t>
-  </si>
-  <si>
-    <t>Piece[][] pieces</t>
+    <t>Square</t>
+  </si>
+  <si>
+    <t>Classes</t>
+  </si>
+  <si>
+    <t>Functions</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Enum</t>
+  </si>
+  <si>
+    <t>OPEN
+OCCUPIED
+CORNER
+ELIMINATED</t>
+  </si>
+  <si>
+    <t>Used in Square</t>
+  </si>
+  <si>
+    <t>Piece occupant
+State state</t>
+  </si>
+  <si>
+    <t>Square[][] squares</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>-&gt;</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Consider starting with a board. Every following board has a delta associated with it. This will make it easy to keep track of changes</t>
   </si>
   <si>
     <t>Node parent
 Node leftChild
 Node rightChild
 int timesExplored
-int wins</t>
+int wins
+Board board
+Delta delta</t>
+  </si>
+  <si>
+    <t>Dict(Square : Square) pieceDeltas</t>
+  </si>
+  <si>
+    <t>Get moves</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,16 +159,48 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -114,12 +217,167 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -129,9 +387,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Heading 4" xfId="1" builtinId="19"/>
+    <cellStyle name="Input" xfId="2" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -223,6 +548,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -258,6 +600,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -433,11 +792,86 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="42.42578125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" style="2" customWidth="1"/>
+    <col min="3" max="5" width="23.28515625" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="106.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5073DFD-0AD4-4616-8FCC-C0B882C5BCCB}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.5703125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -446,52 +880,787 @@
     <col min="2" max="2" width="27.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="76.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C36C5D-8A84-49D8-A51B-812BCFD4C6D3}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="27.5703125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" ht="61.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FDF1900-D233-4BA4-8A8A-DEBED25CE9E8}">
+  <dimension ref="A1:AJ25"/>
+  <sheetViews>
+    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10:AJ13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="2.85546875" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="8"/>
+      <c r="H1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="7"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T1" s="7"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC1" s="7"/>
+      <c r="AD1" s="8"/>
+      <c r="AE1" s="7"/>
+      <c r="AF1" s="8"/>
+      <c r="AG1" s="7"/>
+      <c r="AH1" s="8"/>
+      <c r="AI1" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="13"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="12"/>
+      <c r="O2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="13"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="W2" s="12"/>
+      <c r="X2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="11"/>
+      <c r="AF2" s="12"/>
+      <c r="AG2" s="11"/>
+      <c r="AH2" s="12"/>
+      <c r="AI2" s="13"/>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="15"/>
+      <c r="J3" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="12"/>
+      <c r="L3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="12"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="15"/>
+      <c r="S3" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="12"/>
+      <c r="U3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="V3" s="12"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="15"/>
+      <c r="AA3" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB3" s="14"/>
+      <c r="AC3" s="12"/>
+      <c r="AD3" s="11"/>
+      <c r="AE3" s="12"/>
+      <c r="AF3" s="11"/>
+      <c r="AG3" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI3" s="15"/>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="12"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="10"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="S4" s="10"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="W4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="11"/>
+      <c r="AD4" s="12"/>
+      <c r="AE4" s="11"/>
+      <c r="AF4" s="12"/>
+      <c r="AG4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH4" s="12"/>
+      <c r="AI4" s="13"/>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="15"/>
+      <c r="J5" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="12"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q5" s="15"/>
+      <c r="S5" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="T5" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="U5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="V5" s="12"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB5" s="14"/>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="12"/>
+      <c r="AF5" s="11"/>
+      <c r="AG5" s="12"/>
+      <c r="AH5" s="11"/>
+      <c r="AI5" s="15"/>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="13"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="11"/>
+      <c r="N6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q6" s="13"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="U6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="V6" s="11"/>
+      <c r="W6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="X6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="11"/>
+      <c r="AH6" s="12"/>
+      <c r="AI6" s="13"/>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="B7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="15"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7" s="11"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="15"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="U7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="V7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="W7" s="11"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="15"/>
+      <c r="AB7" s="14"/>
+      <c r="AC7" s="12"/>
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="12"/>
+      <c r="AF7" s="11"/>
+      <c r="AG7" s="12"/>
+      <c r="AH7" s="11"/>
+      <c r="AI7" s="15"/>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="17"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="S8" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="T8" s="17"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="18"/>
+      <c r="X8" s="17"/>
+      <c r="Y8" s="18"/>
+      <c r="Z8" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB8" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC8" s="17"/>
+      <c r="AD8" s="18"/>
+      <c r="AE8" s="17"/>
+      <c r="AF8" s="18"/>
+      <c r="AG8" s="17"/>
+      <c r="AH8" s="18"/>
+      <c r="AI8" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="G10" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="26"/>
+      <c r="AA10" s="26"/>
+      <c r="AB10" s="26"/>
+      <c r="AC10" s="26"/>
+      <c r="AD10" s="26"/>
+      <c r="AE10" s="26"/>
+      <c r="AF10" s="26"/>
+      <c r="AG10" s="26"/>
+      <c r="AH10" s="26"/>
+      <c r="AI10" s="26"/>
+      <c r="AJ10" s="26"/>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
+      <c r="W11" s="26"/>
+      <c r="X11" s="26"/>
+      <c r="Y11" s="26"/>
+      <c r="Z11" s="26"/>
+      <c r="AA11" s="26"/>
+      <c r="AB11" s="26"/>
+      <c r="AC11" s="26"/>
+      <c r="AD11" s="26"/>
+      <c r="AE11" s="26"/>
+      <c r="AF11" s="26"/>
+      <c r="AG11" s="26"/>
+      <c r="AH11" s="26"/>
+      <c r="AI11" s="26"/>
+      <c r="AJ11" s="26"/>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="26"/>
+      <c r="W12" s="26"/>
+      <c r="X12" s="26"/>
+      <c r="Y12" s="26"/>
+      <c r="Z12" s="26"/>
+      <c r="AA12" s="26"/>
+      <c r="AB12" s="26"/>
+      <c r="AC12" s="26"/>
+      <c r="AD12" s="26"/>
+      <c r="AE12" s="26"/>
+      <c r="AF12" s="26"/>
+      <c r="AG12" s="26"/>
+      <c r="AH12" s="26"/>
+      <c r="AI12" s="26"/>
+      <c r="AJ12" s="26"/>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="26"/>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="26"/>
+      <c r="AA13" s="26"/>
+      <c r="AB13" s="26"/>
+      <c r="AC13" s="26"/>
+      <c r="AD13" s="26"/>
+      <c r="AE13" s="26"/>
+      <c r="AF13" s="26"/>
+      <c r="AG13" s="26"/>
+      <c r="AH13" s="26"/>
+      <c r="AI13" s="26"/>
+      <c r="AJ13" s="26"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="13"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="15"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="13"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="14"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="15"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="13"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="14"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="15"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="16"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G10:AJ13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Planning/Planning.xlsx
+++ b/Planning/Planning.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90EBF539-F892-4F88-B76E-F70CC5FB10E6}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Classes" sheetId="1" r:id="rId1"/>
@@ -13,12 +12,12 @@
     <sheet name="Misc" sheetId="3" r:id="rId3"/>
     <sheet name="Board" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="42">
   <si>
     <t>Name</t>
   </si>
@@ -38,11 +37,6 @@
     <t>Board</t>
   </si>
   <si>
-    <t>int xPos
-int yPos
-String color (B or W)</t>
-  </si>
-  <si>
     <t>Delta</t>
   </si>
   <si>
@@ -62,9 +56,6 @@
   </si>
   <si>
     <t>Content</t>
-  </si>
-  <si>
-    <t>State</t>
   </si>
   <si>
     <t>Enum</t>
@@ -79,13 +70,6 @@
     <t>Used in Square</t>
   </si>
   <si>
-    <t>Piece occupant
-State state</t>
-  </si>
-  <si>
-    <t>Square[][] squares</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -116,25 +100,78 @@
     <t>Consider starting with a board. Every following board has a delta associated with it. This will make it easy to keep track of changes</t>
   </si>
   <si>
+    <t xml:space="preserve">
+String color (B or W)
+String representation (e.g. @ or O)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Square moveOrigin
+Square moveTarget
+Square[] killedSquares</t>
+  </si>
+  <si>
+    <t>Pos2D</t>
+  </si>
+  <si>
+    <t>int x
+int y</t>
+  </si>
+  <si>
+    <t>Delta[] getMoves(Pos2D pos)</t>
+  </si>
+  <si>
+    <t>MCTSAgent</t>
+  </si>
+  <si>
+    <t>SquareState</t>
+  </si>
+  <si>
+    <t>Pos2D pos
+Piece occupant
+SquareState state</t>
+  </si>
+  <si>
+    <t>GamePhase</t>
+  </si>
+  <si>
+    <t>PLACEMENT
+MOVEMENT</t>
+  </si>
+  <si>
+    <t>Square[][] squares
+int turnNumber
+GamePhase phase</t>
+  </si>
+  <si>
+    <t>MCTSAgent.train(MCTSAgent.treeRoot, 60)</t>
+  </si>
+  <si>
+    <t>Node treeRoot
+void train(Node root, int seconds)
+void select(Node startNode)
+void expand(Node node)
+void simulate(Node node)</t>
+  </si>
+  <si>
     <t>Node parent
-Node leftChild
-Node rightChild
+Node[] children
 int timesExplored
 int wins
 Board board
 Delta delta</t>
   </si>
   <si>
-    <t>Dict(Square : Square) pieceDeltas</t>
-  </si>
-  <si>
-    <t>Get moves</t>
+    <t>Board getNextBoard(Board, Delta)
+Node getNextNode(Node)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -377,7 +414,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -452,6 +489,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -548,23 +588,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -600,23 +623,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -792,22 +798,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="42.42578125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="23.28515625" style="2" customWidth="1"/>
-    <col min="3" max="5" width="23.28515625" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" customWidth="1"/>
+    <col min="5" max="5" width="33.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -818,46 +827,69 @@
         <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="106.5" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="91.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H2" s="27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H5" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -867,7 +899,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5073DFD-0AD4-4616-8FCC-C0B882C5BCCB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -887,7 +919,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3"/>
       <c r="E2" s="4"/>
@@ -895,7 +927,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -909,11 +941,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C36C5D-8A84-49D8-A51B-812BCFD4C6D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.5703125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -927,25 +959,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" ht="61.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -953,7 +994,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -962,11 +1003,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FDF1900-D233-4BA4-8A8A-DEBED25CE9E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ25"/>
   <sheetViews>
-    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:AJ13"/>
+    <sheetView zoomScale="99" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="AG3" sqref="AG3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -976,55 +1017,55 @@
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="8"/>
       <c r="D1" s="7"/>
       <c r="E1" s="8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G1" s="8"/>
       <c r="H1" s="9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K1" s="7"/>
       <c r="L1" s="8"/>
       <c r="M1" s="7"/>
       <c r="N1" s="8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="P1" s="8"/>
       <c r="Q1" s="9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="T1" s="7"/>
       <c r="U1" s="8"/>
       <c r="V1" s="7"/>
       <c r="W1" s="8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="X1" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Y1" s="8"/>
       <c r="Z1" s="9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AB1" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AC1" s="7"/>
       <c r="AD1" s="8"/>
@@ -1033,7 +1074,7 @@
       <c r="AG1" s="7"/>
       <c r="AH1" s="8"/>
       <c r="AI1" s="9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
@@ -1041,46 +1082,46 @@
       <c r="B2" s="11"/>
       <c r="C2" s="12"/>
       <c r="D2" s="11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H2" s="13"/>
       <c r="J2" s="10"/>
       <c r="K2" s="11"/>
       <c r="L2" s="12"/>
       <c r="M2" s="11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N2" s="12"/>
       <c r="O2" s="11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Q2" s="13"/>
       <c r="S2" s="10"/>
       <c r="T2" s="11"/>
       <c r="U2" s="12"/>
       <c r="V2" s="11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="W2" s="12"/>
       <c r="X2" s="11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Y2" s="12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Z2" s="13"/>
       <c r="AA2" s="24" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AB2" s="10"/>
       <c r="AC2" s="11"/>
@@ -1093,49 +1134,49 @@
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="11"/>
       <c r="F3" s="12"/>
       <c r="G3" s="11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H3" s="15"/>
       <c r="J3" s="14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K3" s="12"/>
       <c r="L3" s="11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M3" s="12"/>
       <c r="N3" s="11"/>
       <c r="O3" s="21" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="P3" s="11"/>
       <c r="Q3" s="15"/>
       <c r="S3" s="14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="T3" s="12"/>
       <c r="U3" s="11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="V3" s="12"/>
       <c r="W3" s="11"/>
       <c r="X3" s="21" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Y3" s="11"/>
       <c r="Z3" s="15"/>
       <c r="AA3" s="24" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AB3" s="14"/>
       <c r="AC3" s="12"/>
@@ -1143,10 +1184,10 @@
       <c r="AE3" s="12"/>
       <c r="AF3" s="11"/>
       <c r="AG3" s="23" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AH3" s="11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AI3" s="15"/>
     </row>
@@ -1155,50 +1196,50 @@
       <c r="B4" s="11"/>
       <c r="C4" s="12"/>
       <c r="D4" s="11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="13"/>
       <c r="I4" s="20" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="11"/>
       <c r="L4" s="12"/>
       <c r="M4" s="11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="O4" s="22" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="P4" s="12"/>
       <c r="Q4" s="13"/>
       <c r="R4" s="20" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="S4" s="10"/>
       <c r="T4" s="11"/>
       <c r="U4" s="12"/>
       <c r="V4" s="11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="W4" s="12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="X4" s="11"/>
       <c r="Y4" s="12"/>
       <c r="Z4" s="13"/>
       <c r="AA4" s="25" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AB4" s="10"/>
       <c r="AC4" s="11"/>
@@ -1206,68 +1247,68 @@
       <c r="AE4" s="11"/>
       <c r="AF4" s="12"/>
       <c r="AG4" s="11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AH4" s="12"/>
       <c r="AI4" s="13"/>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="11"/>
       <c r="F5" s="12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H5" s="15"/>
       <c r="J5" s="14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M5" s="12"/>
       <c r="N5" s="11"/>
       <c r="O5" s="12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Q5" s="15"/>
       <c r="S5" s="14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="T5" s="12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="U5" s="11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="V5" s="12"/>
       <c r="W5" s="11"/>
       <c r="X5" s="12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Y5" s="11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Z5" s="15"/>
       <c r="AA5" s="24" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AB5" s="14"/>
       <c r="AC5" s="12"/>
@@ -1281,60 +1322,60 @@
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H6" s="13"/>
       <c r="J6" s="10"/>
       <c r="K6" s="11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M6" s="11"/>
       <c r="N6" s="12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O6" s="11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Q6" s="13"/>
       <c r="S6" s="10"/>
       <c r="T6" s="11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="V6" s="11"/>
       <c r="W6" s="12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="X6" s="11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Y6" s="12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Z6" s="13"/>
       <c r="AA6" s="24" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AB6" s="10"/>
       <c r="AC6" s="11"/>
@@ -1348,13 +1389,13 @@
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="12"/>
@@ -1362,13 +1403,13 @@
       <c r="H7" s="15"/>
       <c r="J7" s="14"/>
       <c r="K7" s="12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N7" s="11"/>
       <c r="O7" s="12"/>
@@ -1376,13 +1417,13 @@
       <c r="Q7" s="15"/>
       <c r="S7" s="14"/>
       <c r="T7" s="12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="U7" s="11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="V7" s="12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="W7" s="11"/>
       <c r="X7" s="12"/>
@@ -1399,7 +1440,7 @@
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B8" s="17"/>
       <c r="C8" s="18"/>
@@ -1408,10 +1449,10 @@
       <c r="F8" s="17"/>
       <c r="G8" s="18"/>
       <c r="H8" s="19" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K8" s="17"/>
       <c r="L8" s="18"/>
@@ -1420,10 +1461,10 @@
       <c r="O8" s="17"/>
       <c r="P8" s="18"/>
       <c r="Q8" s="19" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="S8" s="16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="T8" s="17"/>
       <c r="U8" s="18"/>
@@ -1432,10 +1473,10 @@
       <c r="X8" s="17"/>
       <c r="Y8" s="18"/>
       <c r="Z8" s="19" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AB8" s="16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AC8" s="17"/>
       <c r="AD8" s="18"/>
@@ -1444,12 +1485,12 @@
       <c r="AG8" s="17"/>
       <c r="AH8" s="18"/>
       <c r="AI8" s="19" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="G10" s="26" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H10" s="26"/>
       <c r="I10" s="26"/>

--- a/Planning/Planning.xlsx
+++ b/Planning/Planning.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647AC5A8-366B-4679-9E05-719162C9BBB8}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Classes" sheetId="1" r:id="rId1"/>
@@ -137,15 +138,6 @@
     <t>GamePhase</t>
   </si>
   <si>
-    <t>PLACEMENT
-MOVEMENT</t>
-  </si>
-  <si>
-    <t>Square[][] squares
-int turnNumber
-GamePhase phase</t>
-  </si>
-  <si>
     <t>MCTSAgent.train(MCTSAgent.treeRoot, 60)</t>
   </si>
   <si>
@@ -167,11 +159,22 @@
     <t>Board getNextBoard(Board, Delta)
 Node getNextNode(Node)</t>
   </si>
+  <si>
+    <t>PLACEMENT
+MOVEMENT
+FINISHED</t>
+  </si>
+  <si>
+    <t>Square[][] squares
+int turnNumber
+GamePhase phase
+String winner (B or W)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -487,11 +490,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -588,6 +591,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -623,6 +643,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -798,11 +835,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="42.42578125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -847,10 +884,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>34</v>
@@ -861,11 +898,11 @@
       <c r="F2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="27" t="s">
-        <v>39</v>
+      <c r="H2" s="26" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="31.5" x14ac:dyDescent="0.35">
@@ -879,7 +916,7 @@
         <v>27</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -889,7 +926,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="H5" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -899,7 +936,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -941,7 +978,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -986,7 +1023,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -1003,7 +1040,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AJ25"/>
   <sheetViews>
     <sheetView zoomScale="99" zoomScaleNormal="235" workbookViewId="0">
@@ -1489,134 +1526,134 @@
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="G10" s="26" t="s">
+      <c r="G10" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="26"/>
-      <c r="U10" s="26"/>
-      <c r="V10" s="26"/>
-      <c r="W10" s="26"/>
-      <c r="X10" s="26"/>
-      <c r="Y10" s="26"/>
-      <c r="Z10" s="26"/>
-      <c r="AA10" s="26"/>
-      <c r="AB10" s="26"/>
-      <c r="AC10" s="26"/>
-      <c r="AD10" s="26"/>
-      <c r="AE10" s="26"/>
-      <c r="AF10" s="26"/>
-      <c r="AG10" s="26"/>
-      <c r="AH10" s="26"/>
-      <c r="AI10" s="26"/>
-      <c r="AJ10" s="26"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="27"/>
+      <c r="V10" s="27"/>
+      <c r="W10" s="27"/>
+      <c r="X10" s="27"/>
+      <c r="Y10" s="27"/>
+      <c r="Z10" s="27"/>
+      <c r="AA10" s="27"/>
+      <c r="AB10" s="27"/>
+      <c r="AC10" s="27"/>
+      <c r="AD10" s="27"/>
+      <c r="AE10" s="27"/>
+      <c r="AF10" s="27"/>
+      <c r="AG10" s="27"/>
+      <c r="AH10" s="27"/>
+      <c r="AI10" s="27"/>
+      <c r="AJ10" s="27"/>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="26"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
-      <c r="W11" s="26"/>
-      <c r="X11" s="26"/>
-      <c r="Y11" s="26"/>
-      <c r="Z11" s="26"/>
-      <c r="AA11" s="26"/>
-      <c r="AB11" s="26"/>
-      <c r="AC11" s="26"/>
-      <c r="AD11" s="26"/>
-      <c r="AE11" s="26"/>
-      <c r="AF11" s="26"/>
-      <c r="AG11" s="26"/>
-      <c r="AH11" s="26"/>
-      <c r="AI11" s="26"/>
-      <c r="AJ11" s="26"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27"/>
+      <c r="W11" s="27"/>
+      <c r="X11" s="27"/>
+      <c r="Y11" s="27"/>
+      <c r="Z11" s="27"/>
+      <c r="AA11" s="27"/>
+      <c r="AB11" s="27"/>
+      <c r="AC11" s="27"/>
+      <c r="AD11" s="27"/>
+      <c r="AE11" s="27"/>
+      <c r="AF11" s="27"/>
+      <c r="AG11" s="27"/>
+      <c r="AH11" s="27"/>
+      <c r="AI11" s="27"/>
+      <c r="AJ11" s="27"/>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="26"/>
-      <c r="U12" s="26"/>
-      <c r="V12" s="26"/>
-      <c r="W12" s="26"/>
-      <c r="X12" s="26"/>
-      <c r="Y12" s="26"/>
-      <c r="Z12" s="26"/>
-      <c r="AA12" s="26"/>
-      <c r="AB12" s="26"/>
-      <c r="AC12" s="26"/>
-      <c r="AD12" s="26"/>
-      <c r="AE12" s="26"/>
-      <c r="AF12" s="26"/>
-      <c r="AG12" s="26"/>
-      <c r="AH12" s="26"/>
-      <c r="AI12" s="26"/>
-      <c r="AJ12" s="26"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="27"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="27"/>
+      <c r="V12" s="27"/>
+      <c r="W12" s="27"/>
+      <c r="X12" s="27"/>
+      <c r="Y12" s="27"/>
+      <c r="Z12" s="27"/>
+      <c r="AA12" s="27"/>
+      <c r="AB12" s="27"/>
+      <c r="AC12" s="27"/>
+      <c r="AD12" s="27"/>
+      <c r="AE12" s="27"/>
+      <c r="AF12" s="27"/>
+      <c r="AG12" s="27"/>
+      <c r="AH12" s="27"/>
+      <c r="AI12" s="27"/>
+      <c r="AJ12" s="27"/>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="26"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="26"/>
-      <c r="W13" s="26"/>
-      <c r="X13" s="26"/>
-      <c r="Y13" s="26"/>
-      <c r="Z13" s="26"/>
-      <c r="AA13" s="26"/>
-      <c r="AB13" s="26"/>
-      <c r="AC13" s="26"/>
-      <c r="AD13" s="26"/>
-      <c r="AE13" s="26"/>
-      <c r="AF13" s="26"/>
-      <c r="AG13" s="26"/>
-      <c r="AH13" s="26"/>
-      <c r="AI13" s="26"/>
-      <c r="AJ13" s="26"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="27"/>
+      <c r="V13" s="27"/>
+      <c r="W13" s="27"/>
+      <c r="X13" s="27"/>
+      <c r="Y13" s="27"/>
+      <c r="Z13" s="27"/>
+      <c r="AA13" s="27"/>
+      <c r="AB13" s="27"/>
+      <c r="AC13" s="27"/>
+      <c r="AD13" s="27"/>
+      <c r="AE13" s="27"/>
+      <c r="AF13" s="27"/>
+      <c r="AG13" s="27"/>
+      <c r="AH13" s="27"/>
+      <c r="AI13" s="27"/>
+      <c r="AJ13" s="27"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>

--- a/Planning/Planning.xlsx
+++ b/Planning/Planning.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647AC5A8-366B-4679-9E05-719162C9BBB8}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E85889-5A99-44B8-8FB5-EED8BD0B97B4}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="45">
   <si>
     <t>Name</t>
   </si>
@@ -101,11 +101,6 @@
     <t>Consider starting with a board. Every following board has a delta associated with it. This will make it easy to keep track of changes</t>
   </si>
   <si>
-    <t xml:space="preserve">
-String color (B or W)
-String representation (e.g. @ or O)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -136,16 +131,6 @@
   </si>
   <si>
     <t>GamePhase</t>
-  </si>
-  <si>
-    <t>MCTSAgent.train(MCTSAgent.treeRoot, 60)</t>
-  </si>
-  <si>
-    <t>Node treeRoot
-void train(Node root, int seconds)
-void select(Node startNode)
-void expand(Node node)
-void simulate(Node node)</t>
   </si>
   <si>
     <t>Node parent
@@ -156,19 +141,42 @@
 Delta delta</t>
   </si>
   <si>
-    <t>Board getNextBoard(Board, Delta)
-Node getNextNode(Node)</t>
-  </si>
-  <si>
     <t>PLACEMENT
 MOVEMENT
 FINISHED</t>
   </si>
   <si>
+    <t>Player</t>
+  </si>
+  <si>
+    <t>WHITE
+BLACK
+.getRepresentation() (@ or O)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Player owner</t>
+  </si>
+  <si>
     <t>Square[][] squares
-int turnNumber
+int roundNumber
 GamePhase phase
-String winner (B or W)</t>
+Player winner</t>
+  </si>
+  <si>
+    <t>Utils</t>
+  </si>
+  <si>
+    <t>Board getNextBoard(Board, Delta)</t>
+  </si>
+  <si>
+    <t>Node treeRoot</t>
+  </si>
+  <si>
+    <t>void train(Node root, int seconds)
+void select(Node node, int Ni)
+void simulate(Node node)
+void backPropogate(Node node, Player winner)</t>
   </si>
 </sst>
 </file>
@@ -836,10 +844,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="42.42578125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -850,10 +858,11 @@
     <col min="4" max="4" width="23.28515625" customWidth="1"/>
     <col min="5" max="5" width="33.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" width="45.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -873,61 +882,65 @@
         <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="91.5" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+      <c r="I1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="91.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H2" s="26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="31.5" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="61.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+      <c r="I3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="H5" s="4" t="s">
-        <v>36</v>
-      </c>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H5" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -982,7 +995,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.5703125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -996,10 +1009,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -1012,6 +1028,9 @@
       <c r="C2" t="s">
         <v>13</v>
       </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
     </row>
@@ -1023,7 +1042,10 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">

--- a/Planning/Planning.xlsx
+++ b/Planning/Planning.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E85889-5A99-44B8-8FB5-EED8BD0B97B4}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F570E9-9BE6-48E6-B718-D88186816C84}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -847,7 +847,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="42.42578125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>

--- a/Planning/Planning.xlsx
+++ b/Planning/Planning.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F570E9-9BE6-48E6-B718-D88186816C84}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6BF4DD-C545-4DD9-B4FF-14E4D3FB7216}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="45">
   <si>
     <t>Name</t>
   </si>
@@ -1063,10 +1063,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AJ25"/>
+  <dimension ref="A1:AR25"/>
   <sheetViews>
     <sheetView zoomScale="99" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="AG3" sqref="AG3"/>
+      <selection activeCell="AN3" sqref="AN3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1074,7 +1074,7 @@
     <col min="1" max="16384" width="2.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>16</v>
       </c>
@@ -1135,8 +1135,20 @@
       <c r="AI1" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL1" s="7"/>
+      <c r="AM1" s="8"/>
+      <c r="AN1" s="7"/>
+      <c r="AO1" s="8"/>
+      <c r="AP1" s="7"/>
+      <c r="AQ1" s="8"/>
+      <c r="AR1" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="11"/>
       <c r="C2" s="12"/>
@@ -1190,8 +1202,16 @@
       <c r="AG2" s="11"/>
       <c r="AH2" s="12"/>
       <c r="AI2" s="13"/>
-    </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK2" s="10"/>
+      <c r="AL2" s="11"/>
+      <c r="AM2" s="12"/>
+      <c r="AN2" s="11"/>
+      <c r="AO2" s="12"/>
+      <c r="AP2" s="11"/>
+      <c r="AQ2" s="12"/>
+      <c r="AR2" s="13"/>
+    </row>
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>17</v>
       </c>
@@ -1249,8 +1269,22 @@
         <v>18</v>
       </c>
       <c r="AI3" s="15"/>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK3" s="14"/>
+      <c r="AL3" s="12"/>
+      <c r="AM3" s="11"/>
+      <c r="AN3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="AO3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="AQ3" s="11"/>
+      <c r="AR3" s="15"/>
+    </row>
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="11"/>
       <c r="C4" s="12"/>
@@ -1310,8 +1344,16 @@
       </c>
       <c r="AH4" s="12"/>
       <c r="AI4" s="13"/>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK4" s="10"/>
+      <c r="AL4" s="11"/>
+      <c r="AM4" s="12"/>
+      <c r="AN4" s="11"/>
+      <c r="AO4" s="12"/>
+      <c r="AP4" s="11"/>
+      <c r="AQ4" s="12"/>
+      <c r="AR4" s="13"/>
+    </row>
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>17</v>
       </c>
@@ -1377,8 +1419,16 @@
       <c r="AG5" s="12"/>
       <c r="AH5" s="11"/>
       <c r="AI5" s="15"/>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK5" s="14"/>
+      <c r="AL5" s="12"/>
+      <c r="AM5" s="11"/>
+      <c r="AN5" s="12"/>
+      <c r="AO5" s="11"/>
+      <c r="AP5" s="12"/>
+      <c r="AQ5" s="11"/>
+      <c r="AR5" s="15"/>
+    </row>
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="11" t="s">
         <v>18</v>
@@ -1444,8 +1494,16 @@
       <c r="AG6" s="11"/>
       <c r="AH6" s="12"/>
       <c r="AI6" s="13"/>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK6" s="10"/>
+      <c r="AL6" s="11"/>
+      <c r="AM6" s="12"/>
+      <c r="AN6" s="11"/>
+      <c r="AO6" s="12"/>
+      <c r="AP6" s="11"/>
+      <c r="AQ6" s="12"/>
+      <c r="AR6" s="13"/>
+    </row>
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="12" t="s">
         <v>18</v>
@@ -1496,8 +1554,16 @@
       <c r="AG7" s="12"/>
       <c r="AH7" s="11"/>
       <c r="AI7" s="15"/>
-    </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK7" s="14"/>
+      <c r="AL7" s="12"/>
+      <c r="AM7" s="11"/>
+      <c r="AN7" s="12"/>
+      <c r="AO7" s="11"/>
+      <c r="AP7" s="12"/>
+      <c r="AQ7" s="11"/>
+      <c r="AR7" s="15"/>
+    </row>
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>16</v>
       </c>
@@ -1546,8 +1612,20 @@
       <c r="AI8" s="19" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK8" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL8" s="17"/>
+      <c r="AM8" s="18"/>
+      <c r="AN8" s="17"/>
+      <c r="AO8" s="18"/>
+      <c r="AP8" s="17"/>
+      <c r="AQ8" s="18"/>
+      <c r="AR8" s="19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="G10" s="27" t="s">
         <v>25</v>
       </c>
@@ -1581,7 +1659,7 @@
       <c r="AI10" s="27"/>
       <c r="AJ10" s="27"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
@@ -1613,7 +1691,7 @@
       <c r="AI11" s="27"/>
       <c r="AJ11" s="27"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
@@ -1645,7 +1723,7 @@
       <c r="AI12" s="27"/>
       <c r="AJ12" s="27"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
       <c r="I13" s="27"/>
@@ -1678,14 +1756,18 @@
       <c r="AJ13" s="27"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
+      <c r="A18" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="B18" s="7"/>
       <c r="C18" s="8"/>
       <c r="D18" s="7"/>
       <c r="E18" s="8"/>
       <c r="F18" s="7"/>
       <c r="G18" s="8"/>
-      <c r="H18" s="9"/>
+      <c r="H18" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
@@ -1748,14 +1830,18 @@
       <c r="H24" s="15"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
+      <c r="A25" s="16" t="s">
+        <v>16</v>
+      </c>
       <c r="B25" s="17"/>
       <c r="C25" s="18"/>
       <c r="D25" s="17"/>
       <c r="E25" s="18"/>
       <c r="F25" s="17"/>
       <c r="G25" s="18"/>
-      <c r="H25" s="19"/>
+      <c r="H25" s="19" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Planning/Planning.xlsx
+++ b/Planning/Planning.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6BF4DD-C545-4DD9-B4FF-14E4D3FB7216}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4973C0-E74E-47D0-92D7-D702EE96ED50}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Classes" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="45">
   <si>
     <t>Name</t>
   </si>
@@ -846,7 +846,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
@@ -1063,10 +1063,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AR25"/>
+  <dimension ref="A1:BB26"/>
   <sheetViews>
-    <sheetView zoomScale="99" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="AN3" sqref="AN3"/>
+    <sheetView tabSelected="1" topLeftCell="AS1" zoomScale="385" zoomScaleNormal="385" workbookViewId="0">
+      <selection activeCell="BB3" sqref="BB3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1074,593 +1074,728 @@
     <col min="1" max="16384" width="2.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" s="7"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="X1" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC1" s="7"/>
-      <c r="AD1" s="8"/>
-      <c r="AE1" s="7"/>
-      <c r="AF1" s="8"/>
-      <c r="AG1" s="7"/>
-      <c r="AH1" s="8"/>
-      <c r="AI1" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AK1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="AL1" s="7"/>
-      <c r="AM1" s="8"/>
-      <c r="AN1" s="7"/>
-      <c r="AO1" s="8"/>
-      <c r="AP1" s="7"/>
-      <c r="AQ1" s="8"/>
-      <c r="AR1" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="13"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" s="12"/>
-      <c r="O2" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="P2" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q2" s="13"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="W2" s="12"/>
-      <c r="X2" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y2" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z2" s="13"/>
-      <c r="AA2" s="24" t="s">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="AT1" s="5">
+        <v>0</v>
+      </c>
+      <c r="AU1" s="5">
+        <v>1</v>
+      </c>
+      <c r="AV1" s="5">
+        <v>2</v>
+      </c>
+      <c r="AW1" s="5">
+        <v>3</v>
+      </c>
+      <c r="AX1" s="5">
+        <v>4</v>
+      </c>
+      <c r="AY1" s="5">
+        <v>5</v>
+      </c>
+      <c r="AZ1" s="5">
+        <v>6</v>
+      </c>
+      <c r="BA1" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="7"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="T2" s="7"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL2" s="7"/>
+      <c r="AM2" s="8"/>
+      <c r="AN2" s="7"/>
+      <c r="AO2" s="8"/>
+      <c r="AP2" s="7"/>
+      <c r="AQ2" s="8"/>
+      <c r="AR2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AU2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="AV2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="AW2" s="7"/>
+      <c r="AX2" s="8"/>
+      <c r="AY2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="AZ2" s="8"/>
+      <c r="BA2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="BB2" s="5">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="13"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="12"/>
+      <c r="O3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3" s="13"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="W3" s="12"/>
+      <c r="X3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="AB2" s="10"/>
-      <c r="AC2" s="11"/>
-      <c r="AD2" s="12"/>
-      <c r="AE2" s="11"/>
-      <c r="AF2" s="12"/>
-      <c r="AG2" s="11"/>
-      <c r="AH2" s="12"/>
-      <c r="AI2" s="13"/>
-      <c r="AK2" s="10"/>
-      <c r="AL2" s="11"/>
-      <c r="AM2" s="12"/>
-      <c r="AN2" s="11"/>
-      <c r="AO2" s="12"/>
-      <c r="AP2" s="11"/>
-      <c r="AQ2" s="12"/>
-      <c r="AR2" s="13"/>
-    </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="15"/>
-      <c r="J3" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" s="12"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="15"/>
-      <c r="S3" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="T3" s="12"/>
-      <c r="U3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="V3" s="12"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="15"/>
-      <c r="AA3" s="24" t="s">
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="12"/>
+      <c r="AE3" s="11"/>
+      <c r="AF3" s="12"/>
+      <c r="AG3" s="11"/>
+      <c r="AH3" s="12"/>
+      <c r="AI3" s="13"/>
+      <c r="AK3" s="10"/>
+      <c r="AL3" s="11"/>
+      <c r="AM3" s="12"/>
+      <c r="AN3" s="11"/>
+      <c r="AO3" s="12"/>
+      <c r="AP3" s="11"/>
+      <c r="AQ3" s="12"/>
+      <c r="AR3" s="13"/>
+      <c r="AS3" s="5">
+        <v>1</v>
+      </c>
+      <c r="AT3" s="10"/>
+      <c r="AU3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="AV3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="AW3" s="11"/>
+      <c r="AX3" s="12"/>
+      <c r="AY3" s="11"/>
+      <c r="AZ3" s="12"/>
+      <c r="BA3" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="15"/>
+      <c r="J4" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="12"/>
+      <c r="L4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="12"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="15"/>
+      <c r="S4" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="T4" s="12"/>
+      <c r="U4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="V4" s="12"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="AB3" s="14"/>
-      <c r="AC3" s="12"/>
-      <c r="AD3" s="11"/>
-      <c r="AE3" s="12"/>
-      <c r="AF3" s="11"/>
-      <c r="AG3" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="AH3" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI3" s="15"/>
-      <c r="AK3" s="14"/>
-      <c r="AL3" s="12"/>
-      <c r="AM3" s="11"/>
-      <c r="AN3" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AO3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="AP3" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AQ3" s="11"/>
-      <c r="AR3" s="15"/>
-    </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="20" t="s">
+      <c r="AB4" s="14"/>
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="11"/>
+      <c r="AE4" s="12"/>
+      <c r="AF4" s="11"/>
+      <c r="AG4" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI4" s="15"/>
+      <c r="AK4" s="14"/>
+      <c r="AL4" s="12"/>
+      <c r="AM4" s="11"/>
+      <c r="AN4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="AO4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="AQ4" s="11"/>
+      <c r="AR4" s="15"/>
+      <c r="AS4" s="5">
+        <v>2</v>
+      </c>
+      <c r="AT4" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AU4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="AV4" s="11"/>
+      <c r="AW4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="AX4" s="11"/>
+      <c r="AY4" s="12"/>
+      <c r="AZ4" s="11"/>
+      <c r="BA4" s="15"/>
+    </row>
+    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="10"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="O4" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="20" t="s">
+      <c r="J5" s="10"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="S4" s="10"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="W4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="13"/>
-      <c r="AA4" s="25" t="s">
+      <c r="S5" s="10"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="W5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="AB4" s="10"/>
-      <c r="AC4" s="11"/>
-      <c r="AD4" s="12"/>
-      <c r="AE4" s="11"/>
-      <c r="AF4" s="12"/>
-      <c r="AG4" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="AH4" s="12"/>
-      <c r="AI4" s="13"/>
-      <c r="AK4" s="10"/>
-      <c r="AL4" s="11"/>
-      <c r="AM4" s="12"/>
-      <c r="AN4" s="11"/>
-      <c r="AO4" s="12"/>
-      <c r="AP4" s="11"/>
-      <c r="AQ4" s="12"/>
-      <c r="AR4" s="13"/>
-    </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="15"/>
-      <c r="J5" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="M5" s="12"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="P5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q5" s="15"/>
-      <c r="S5" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="T5" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="U5" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="V5" s="12"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z5" s="15"/>
-      <c r="AA5" s="24" t="s">
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="12"/>
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="12"/>
+      <c r="AG5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH5" s="12"/>
+      <c r="AI5" s="13"/>
+      <c r="AK5" s="10"/>
+      <c r="AL5" s="11"/>
+      <c r="AM5" s="12"/>
+      <c r="AN5" s="11"/>
+      <c r="AO5" s="12"/>
+      <c r="AP5" s="11"/>
+      <c r="AQ5" s="12"/>
+      <c r="AR5" s="13"/>
+      <c r="AS5" s="5">
+        <v>3</v>
+      </c>
+      <c r="AT5" s="10"/>
+      <c r="AU5" s="11"/>
+      <c r="AV5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="AW5" s="11"/>
+      <c r="AX5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="AY5" s="11"/>
+      <c r="AZ5" s="12"/>
+      <c r="BA5" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="15"/>
+      <c r="J6" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="12"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q6" s="15"/>
+      <c r="S6" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="T6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="U6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="V6" s="12"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z6" s="15"/>
+      <c r="AA6" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="AB5" s="14"/>
-      <c r="AC5" s="12"/>
-      <c r="AD5" s="11"/>
-      <c r="AE5" s="12"/>
-      <c r="AF5" s="11"/>
-      <c r="AG5" s="12"/>
-      <c r="AH5" s="11"/>
-      <c r="AI5" s="15"/>
-      <c r="AK5" s="14"/>
-      <c r="AL5" s="12"/>
-      <c r="AM5" s="11"/>
-      <c r="AN5" s="12"/>
-      <c r="AO5" s="11"/>
-      <c r="AP5" s="12"/>
-      <c r="AQ5" s="11"/>
-      <c r="AR5" s="15"/>
-    </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="13"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="M6" s="11"/>
-      <c r="N6" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="O6" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="P6" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q6" s="13"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="U6" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="V6" s="11"/>
-      <c r="W6" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="X6" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y6" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z6" s="13"/>
-      <c r="AA6" s="24" t="s">
+      <c r="AB6" s="14"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="11"/>
+      <c r="AG6" s="12"/>
+      <c r="AH6" s="11"/>
+      <c r="AI6" s="15"/>
+      <c r="AK6" s="14"/>
+      <c r="AL6" s="12"/>
+      <c r="AM6" s="11"/>
+      <c r="AN6" s="12"/>
+      <c r="AO6" s="11"/>
+      <c r="AP6" s="12"/>
+      <c r="AQ6" s="11"/>
+      <c r="AR6" s="15"/>
+      <c r="AS6" s="5">
+        <v>4</v>
+      </c>
+      <c r="AT6" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AU6" s="12"/>
+      <c r="AV6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="AW6" s="12"/>
+      <c r="AX6" s="11"/>
+      <c r="AY6" s="12"/>
+      <c r="AZ6" s="11"/>
+      <c r="BA6" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="13"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="11"/>
+      <c r="N7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="O7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q7" s="13"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="U7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="V7" s="11"/>
+      <c r="W7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="X7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z7" s="13"/>
+      <c r="AA7" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="AB6" s="10"/>
-      <c r="AC6" s="11"/>
-      <c r="AD6" s="12"/>
-      <c r="AE6" s="11"/>
-      <c r="AF6" s="12"/>
-      <c r="AG6" s="11"/>
-      <c r="AH6" s="12"/>
-      <c r="AI6" s="13"/>
-      <c r="AK6" s="10"/>
-      <c r="AL6" s="11"/>
-      <c r="AM6" s="12"/>
-      <c r="AN6" s="11"/>
-      <c r="AO6" s="12"/>
-      <c r="AP6" s="11"/>
-      <c r="AQ6" s="12"/>
-      <c r="AR6" s="13"/>
-    </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="15"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="M7" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="N7" s="11"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="15"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="U7" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="V7" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="W7" s="11"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="15"/>
-      <c r="AB7" s="14"/>
-      <c r="AC7" s="12"/>
-      <c r="AD7" s="11"/>
-      <c r="AE7" s="12"/>
-      <c r="AF7" s="11"/>
-      <c r="AG7" s="12"/>
-      <c r="AH7" s="11"/>
-      <c r="AI7" s="15"/>
-      <c r="AK7" s="14"/>
-      <c r="AL7" s="12"/>
-      <c r="AM7" s="11"/>
-      <c r="AN7" s="12"/>
-      <c r="AO7" s="11"/>
-      <c r="AP7" s="12"/>
-      <c r="AQ7" s="11"/>
-      <c r="AR7" s="15"/>
-    </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" s="17"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="S8" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="T8" s="17"/>
-      <c r="U8" s="18"/>
-      <c r="V8" s="17"/>
-      <c r="W8" s="18"/>
-      <c r="X8" s="17"/>
-      <c r="Y8" s="18"/>
-      <c r="Z8" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB8" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC8" s="17"/>
-      <c r="AD8" s="18"/>
-      <c r="AE8" s="17"/>
-      <c r="AF8" s="18"/>
-      <c r="AG8" s="17"/>
-      <c r="AH8" s="18"/>
-      <c r="AI8" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="AK8" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="AL8" s="17"/>
-      <c r="AM8" s="18"/>
-      <c r="AN8" s="17"/>
-      <c r="AO8" s="18"/>
-      <c r="AP8" s="17"/>
-      <c r="AQ8" s="18"/>
-      <c r="AR8" s="19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="G10" s="27" t="s">
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="12"/>
+      <c r="AE7" s="11"/>
+      <c r="AF7" s="12"/>
+      <c r="AG7" s="11"/>
+      <c r="AH7" s="12"/>
+      <c r="AI7" s="13"/>
+      <c r="AK7" s="10"/>
+      <c r="AL7" s="11"/>
+      <c r="AM7" s="12"/>
+      <c r="AN7" s="11"/>
+      <c r="AO7" s="12"/>
+      <c r="AP7" s="11"/>
+      <c r="AQ7" s="12"/>
+      <c r="AR7" s="13"/>
+      <c r="AS7" s="5">
+        <v>5</v>
+      </c>
+      <c r="AT7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AU7" s="11"/>
+      <c r="AV7" s="12"/>
+      <c r="AW7" s="11"/>
+      <c r="AX7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="AY7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="AZ7" s="12"/>
+      <c r="BA7" s="13"/>
+    </row>
+    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="15"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="N8" s="11"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="15"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="U8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="V8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="W8" s="11"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="15"/>
+      <c r="AB8" s="14"/>
+      <c r="AC8" s="12"/>
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="12"/>
+      <c r="AF8" s="11"/>
+      <c r="AG8" s="12"/>
+      <c r="AH8" s="11"/>
+      <c r="AI8" s="15"/>
+      <c r="AK8" s="14"/>
+      <c r="AL8" s="12"/>
+      <c r="AM8" s="11"/>
+      <c r="AN8" s="12"/>
+      <c r="AO8" s="11"/>
+      <c r="AP8" s="12"/>
+      <c r="AQ8" s="11"/>
+      <c r="AR8" s="15"/>
+      <c r="AS8" s="5">
+        <v>6</v>
+      </c>
+      <c r="AT8" s="14"/>
+      <c r="AU8" s="12"/>
+      <c r="AV8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AW8" s="12"/>
+      <c r="AX8" s="11"/>
+      <c r="AY8" s="12"/>
+      <c r="AZ8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="BA8" s="15"/>
+    </row>
+    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="17"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="S9" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="T9" s="17"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="18"/>
+      <c r="X9" s="17"/>
+      <c r="Y9" s="18"/>
+      <c r="Z9" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB9" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC9" s="17"/>
+      <c r="AD9" s="18"/>
+      <c r="AE9" s="17"/>
+      <c r="AF9" s="18"/>
+      <c r="AG9" s="17"/>
+      <c r="AH9" s="18"/>
+      <c r="AI9" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK9" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL9" s="17"/>
+      <c r="AM9" s="18"/>
+      <c r="AN9" s="17"/>
+      <c r="AO9" s="18"/>
+      <c r="AP9" s="17"/>
+      <c r="AQ9" s="18"/>
+      <c r="AR9" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS9" s="5">
+        <v>7</v>
+      </c>
+      <c r="AT9" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AU9" s="17"/>
+      <c r="AV9" s="18"/>
+      <c r="AW9" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="AX9" s="18"/>
+      <c r="AY9" s="17"/>
+      <c r="AZ9" s="18"/>
+      <c r="BA9" s="19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="G11" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="27"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="27"/>
-      <c r="U10" s="27"/>
-      <c r="V10" s="27"/>
-      <c r="W10" s="27"/>
-      <c r="X10" s="27"/>
-      <c r="Y10" s="27"/>
-      <c r="Z10" s="27"/>
-      <c r="AA10" s="27"/>
-      <c r="AB10" s="27"/>
-      <c r="AC10" s="27"/>
-      <c r="AD10" s="27"/>
-      <c r="AE10" s="27"/>
-      <c r="AF10" s="27"/>
-      <c r="AG10" s="27"/>
-      <c r="AH10" s="27"/>
-      <c r="AI10" s="27"/>
-      <c r="AJ10" s="27"/>
-    </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="G11" s="27"/>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
       <c r="J11" s="27"/>
@@ -1691,7 +1826,7 @@
       <c r="AI11" s="27"/>
       <c r="AJ11" s="27"/>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
@@ -1723,7 +1858,7 @@
       <c r="AI12" s="27"/>
       <c r="AJ12" s="27"/>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:54" x14ac:dyDescent="0.25">
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
       <c r="I13" s="27"/>
@@ -1755,98 +1890,131 @@
       <c r="AI13" s="27"/>
       <c r="AJ13" s="27"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="9" t="s">
-        <v>16</v>
-      </c>
+    <row r="14" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="27"/>
+      <c r="U14" s="27"/>
+      <c r="V14" s="27"/>
+      <c r="W14" s="27"/>
+      <c r="X14" s="27"/>
+      <c r="Y14" s="27"/>
+      <c r="Z14" s="27"/>
+      <c r="AA14" s="27"/>
+      <c r="AB14" s="27"/>
+      <c r="AC14" s="27"/>
+      <c r="AD14" s="27"/>
+      <c r="AE14" s="27"/>
+      <c r="AF14" s="27"/>
+      <c r="AG14" s="27"/>
+      <c r="AH14" s="27"/>
+      <c r="AI14" s="27"/>
+      <c r="AJ14" s="27"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="13"/>
+      <c r="A19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="15"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="13"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="13"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="15"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="15"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="13"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="13"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="15"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="15"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="13"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="19" t="s">
+      <c r="A25" s="14"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="15"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="17"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="19" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="G10:AJ13"/>
+    <mergeCell ref="G11:AJ14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Planning/Planning.xlsx
+++ b/Planning/Planning.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4973C0-E74E-47D0-92D7-D702EE96ED50}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584C5119-0880-4482-893D-75C67E646FA8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="45">
   <si>
     <t>Name</t>
   </si>
@@ -183,7 +183,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,6 +230,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -425,7 +432,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -503,6 +510,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1063,10 +1073,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:BB26"/>
+  <dimension ref="A1:BA26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AS1" zoomScale="385" zoomScaleNormal="385" workbookViewId="0">
-      <selection activeCell="BB3" sqref="BB3"/>
+      <selection activeCell="AW2" sqref="AW2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1074,7 +1084,7 @@
     <col min="1" max="16384" width="2.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.25">
       <c r="AT1" s="5">
         <v>0</v>
       </c>
@@ -1100,7 +1110,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>16</v>
       </c>
@@ -1179,26 +1189,17 @@
       <c r="AT2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="AU2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="AV2" s="8" t="s">
-        <v>17</v>
-      </c>
+      <c r="AU2" s="7"/>
+      <c r="AV2" s="8"/>
       <c r="AW2" s="7"/>
       <c r="AX2" s="8"/>
-      <c r="AY2" s="7" t="s">
-        <v>17</v>
-      </c>
+      <c r="AY2" s="7"/>
       <c r="AZ2" s="8"/>
       <c r="BA2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="BB2" s="5">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="11"/>
       <c r="C3" s="12"/>
@@ -1264,21 +1265,17 @@
         <v>1</v>
       </c>
       <c r="AT3" s="10"/>
-      <c r="AU3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="AV3" s="12" t="s">
-        <v>17</v>
-      </c>
+      <c r="AU3" s="11"/>
+      <c r="AV3" s="12"/>
       <c r="AW3" s="11"/>
       <c r="AX3" s="12"/>
       <c r="AY3" s="11"/>
-      <c r="AZ3" s="12"/>
-      <c r="BA3" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="AZ3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="BA3" s="13"/>
+    </row>
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>17</v>
       </c>
@@ -1353,22 +1350,18 @@
       <c r="AS4" s="5">
         <v>2</v>
       </c>
-      <c r="AT4" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="AU4" s="12" t="s">
-        <v>18</v>
-      </c>
+      <c r="AT4" s="14"/>
+      <c r="AU4" s="12"/>
       <c r="AV4" s="11"/>
-      <c r="AW4" s="12" t="s">
-        <v>18</v>
-      </c>
+      <c r="AW4" s="12"/>
       <c r="AX4" s="11"/>
       <c r="AY4" s="12"/>
-      <c r="AZ4" s="11"/>
+      <c r="AZ4" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="BA4" s="15"/>
     </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="11"/>
       <c r="C5" s="12"/>
@@ -1441,20 +1434,18 @@
       </c>
       <c r="AT5" s="10"/>
       <c r="AU5" s="11"/>
-      <c r="AV5" s="12" t="s">
-        <v>18</v>
-      </c>
+      <c r="AV5" s="12"/>
       <c r="AW5" s="11"/>
-      <c r="AX5" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="AY5" s="11"/>
-      <c r="AZ5" s="12"/>
-      <c r="BA5" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="AX5" s="12"/>
+      <c r="AY5" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="AZ5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="BA5" s="13"/>
+    </row>
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>17</v>
       </c>
@@ -1531,22 +1522,16 @@
       <c r="AS6" s="5">
         <v>4</v>
       </c>
-      <c r="AT6" s="14" t="s">
-        <v>17</v>
-      </c>
+      <c r="AT6" s="14"/>
       <c r="AU6" s="12"/>
-      <c r="AV6" s="11" t="s">
-        <v>17</v>
-      </c>
+      <c r="AV6" s="11"/>
       <c r="AW6" s="12"/>
       <c r="AX6" s="11"/>
       <c r="AY6" s="12"/>
       <c r="AZ6" s="11"/>
-      <c r="BA6" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BA6" s="15"/>
+    </row>
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="11" t="s">
         <v>18</v>
@@ -1623,22 +1608,16 @@
       <c r="AS7" s="5">
         <v>5</v>
       </c>
-      <c r="AT7" s="10" t="s">
-        <v>18</v>
-      </c>
+      <c r="AT7" s="10"/>
       <c r="AU7" s="11"/>
       <c r="AV7" s="12"/>
       <c r="AW7" s="11"/>
-      <c r="AX7" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="AY7" s="11" t="s">
-        <v>17</v>
-      </c>
+      <c r="AX7" s="12"/>
+      <c r="AY7" s="11"/>
       <c r="AZ7" s="12"/>
       <c r="BA7" s="13"/>
     </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
       <c r="B8" s="12" t="s">
         <v>18</v>
@@ -1702,18 +1681,14 @@
       </c>
       <c r="AT8" s="14"/>
       <c r="AU8" s="12"/>
-      <c r="AV8" s="11" t="s">
-        <v>18</v>
-      </c>
+      <c r="AV8" s="11"/>
       <c r="AW8" s="12"/>
       <c r="AX8" s="11"/>
       <c r="AY8" s="12"/>
-      <c r="AZ8" s="11" t="s">
-        <v>17</v>
-      </c>
+      <c r="AZ8" s="11"/>
       <c r="BA8" s="15"/>
     </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>16</v>
       </c>
@@ -1782,9 +1757,7 @@
       </c>
       <c r="AU9" s="17"/>
       <c r="AV9" s="18"/>
-      <c r="AW9" s="17" t="s">
-        <v>18</v>
-      </c>
+      <c r="AW9" s="17"/>
       <c r="AX9" s="18"/>
       <c r="AY9" s="17"/>
       <c r="AZ9" s="18"/>
@@ -1792,7 +1765,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="G11" s="27" t="s">
         <v>25</v>
       </c>
@@ -1826,7 +1799,7 @@
       <c r="AI11" s="27"/>
       <c r="AJ11" s="27"/>
     </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
@@ -1858,7 +1831,7 @@
       <c r="AI12" s="27"/>
       <c r="AJ12" s="27"/>
     </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
       <c r="I13" s="27"/>
@@ -1890,7 +1863,7 @@
       <c r="AI13" s="27"/>
       <c r="AJ13" s="27"/>
     </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>

--- a/Planning/Planning.xlsx
+++ b/Planning/Planning.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584C5119-0880-4482-893D-75C67E646FA8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6194F97-C83D-4328-A2EB-924CAC4D1E83}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="45">
   <si>
     <t>Name</t>
   </si>
@@ -183,7 +183,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,13 +230,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFC00000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -432,7 +425,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -510,9 +503,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1076,7 +1066,7 @@
   <dimension ref="A1:BA26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AS1" zoomScale="385" zoomScaleNormal="385" workbookViewId="0">
-      <selection activeCell="AW2" sqref="AW2"/>
+      <selection activeCell="AZ5" sqref="AZ5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1437,12 +1427,10 @@
       <c r="AV5" s="12"/>
       <c r="AW5" s="11"/>
       <c r="AX5" s="12"/>
-      <c r="AY5" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="AZ5" s="12" t="s">
-        <v>17</v>
-      </c>
+      <c r="AY5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="AZ5" s="12"/>
       <c r="BA5" s="13"/>
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.25">
